--- a/Project_189/TestData/InputData.xlsx
+++ b/Project_189/TestData/InputData.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="20055" windowHeight="6165"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="20055" windowHeight="6165" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="celltypes" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Application_URL</t>
   </si>
@@ -34,6 +34,33 @@
   </si>
   <si>
     <t>edge</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>MobileNumber</t>
+  </si>
+  <si>
+    <t>EMPID</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t>Active_Status</t>
+  </si>
+  <si>
+    <t>Date of Joining</t>
+  </si>
+  <si>
+    <t>RaviKumar</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>123456</t>
   </si>
 </sst>
 </file>
@@ -86,10 +113,12 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -387,8 +416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -430,12 +459,69 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="4" width="30.7109375" customWidth="1"/>
+    <col min="5" max="5" width="37.85546875" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>9030248855</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2">
+        <v>30</v>
+      </c>
+      <c r="E2">
+        <v>50000</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>44166</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Project_189/TestData/InputData.xlsx
+++ b/Project_189/TestData/InputData.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="20055" windowHeight="6165" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="20055" windowHeight="6165"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="celltypes" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Data_combinations" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
   <si>
     <t>Application_URL</t>
   </si>
@@ -61,6 +62,99 @@
   </si>
   <si>
     <t>123456</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Mindq1</t>
+  </si>
+  <si>
+    <t>Mindq2</t>
+  </si>
+  <si>
+    <t>Mindq3</t>
+  </si>
+  <si>
+    <t>Mindq4</t>
+  </si>
+  <si>
+    <t>Mindq5</t>
+  </si>
+  <si>
+    <t>Mindq6</t>
+  </si>
+  <si>
+    <t>Mindq7</t>
+  </si>
+  <si>
+    <t>Mindq8</t>
+  </si>
+  <si>
+    <t>Mindq9</t>
+  </si>
+  <si>
+    <t>Mindq10</t>
+  </si>
+  <si>
+    <t>Mindq11</t>
+  </si>
+  <si>
+    <t>Mindq12</t>
+  </si>
+  <si>
+    <t>Mindq13</t>
+  </si>
+  <si>
+    <t>Mindq14</t>
+  </si>
+  <si>
+    <t>Mindq15</t>
+  </si>
+  <si>
+    <t>newpwd1</t>
+  </si>
+  <si>
+    <t>newpwd2</t>
+  </si>
+  <si>
+    <t>newpwd3</t>
+  </si>
+  <si>
+    <t>newpwd4</t>
+  </si>
+  <si>
+    <t>newpwd5</t>
+  </si>
+  <si>
+    <t>newpwd6</t>
+  </si>
+  <si>
+    <t>newpwd7</t>
+  </si>
+  <si>
+    <t>newpwd8</t>
+  </si>
+  <si>
+    <t>newpwd9</t>
+  </si>
+  <si>
+    <t>newpwd10</t>
+  </si>
+  <si>
+    <t>newpwd11</t>
+  </si>
+  <si>
+    <t>newpwd12</t>
+  </si>
+  <si>
+    <t>newpwd13</t>
+  </si>
+  <si>
+    <t>newpwd14</t>
+  </si>
+  <si>
+    <t>newpwd15</t>
   </si>
 </sst>
 </file>
@@ -113,12 +207,18 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -416,9 +516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -461,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -528,12 +626,290 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="6"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="5">
+        <v>123456</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="6"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="5">
+        <v>34567</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Project_189/TestData/InputData.xlsx
+++ b/Project_189/TestData/InputData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="20055" windowHeight="6165"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="20055" windowHeight="6165" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -516,7 +516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -559,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -629,7 +629,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B16"/>
+      <selection activeCell="C2" sqref="C2:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
